--- a/data_process/xlsx/jongno_A2.xlsx
+++ b/data_process/xlsx/jongno_A2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,68 +464,83 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>카페도프</t>
+          <t>그레인바운더리 종로3가점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 중구 동호로 376 1층</t>
+          <t>서울 종로구 삼일대로 388-12 1층 카페 그레인바운더리</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1461-6302</t>
+          <t>0507-1403-2018</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/restaurant/37915696/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.988498&amp;y=37.56900869999999&amp;timestamp=202308280217</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>세운나다방</t>
+          <t>Mouse Potato</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>다방</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 157 4층, 세운나다방</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-2265-2681</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
@@ -547,56 +562,66 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 201 1, 2, 3층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0507-1381-7206</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>서울커피 익선점</t>
+          <t>자연도소금빵&amp;자연도가</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 33-3 1층 서울커피</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1404-4890</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>청수당 베이커리</t>
+          <t>시애틀커피하우스</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,29 +631,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 31-9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1318-8215</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>시애틀커피하우스</t>
+          <t>청수당 베이커리</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,39 +668,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 125 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1321-9356</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>포비 광화문</t>
+          <t>토오베</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>차</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,61 +715,71 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 종로3길 17 D타워 1층 21호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02-2251-8125</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>토오베</t>
+          <t>포비 광화문</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>차</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 62-4 3층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1489-7720</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>커피한약방</t>
+          <t>서울커피 익선점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,29 +789,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 중구 삼일대로12길 16-6</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>070-4148-4242</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>을지로 베로나</t>
+          <t>크라상점 광장시장점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,51 +826,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 중구 충무로5길 24 3층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1348-0526</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>크라상점 광장시장점</t>
+          <t>커피한약방</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 종로32길 25 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>010-7552-0330</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>티퍼런스서울</t>
+          <t>공간갑</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,103 +890,118 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로 61 티퍼런스서울</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-745-1501</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서울바나나커피 을지로4가점</t>
+          <t>소하염전</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 157 3층 다362호, 라362호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02-2276-0327</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>공간갑</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 중구 수표로 48-8 1, 2층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1362-4569</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>티퍼런스서울</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,19 +1011,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 157</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1305-5880</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>뮤직컴플렉스서울 안녕인사동점</t>
+          <t>커피루소 정동</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,93 +1038,108 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 49 안녕인사동 5층 뮤직컴플렉스서울</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1308-2939</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>익선주택</t>
+          <t>식물</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 17-33 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1309-9208</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>아방베이커리 을지로 DGB점</t>
+          <t>적당</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 125 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1417-9923</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>카페하이웨스트 익선점</t>
+          <t>도토리가든</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,7 +1149,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,10 +1159,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 18</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>정보 없음</t>
         </is>
@@ -1076,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>적당</t>
+          <t>결</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,29 +1186,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 29 1층 후문</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1312-8928</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>테르트르</t>
+          <t>노티드 안국</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1128,29 +1233,34 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 낙산5길 46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1388-5689</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>커피루소 정동</t>
+          <t>익선잡방</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>브런치</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,29 +1270,34 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 17 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02-772-9935</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>헬라스커피</t>
+          <t>열시꽃</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,51 +1307,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 19 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1351-7092</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>서울커피 익선점</t>
+          <t>헬라스커피</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 33-3 1층 서울커피</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1404-4890</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>도토리가든</t>
+          <t>카페하이웨스트 익선점</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,29 +1371,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 계동길 19-8 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1476-1176</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>노티드 안국</t>
+          <t>테르트르</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,7 +1408,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1288,61 +1418,71 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 북촌로 6-3 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>070-7755-9377</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>결</t>
+          <t>블루보틀 광화문 카페</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>블루보틀</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 공평동 17</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1437-5840</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>익선잡방</t>
+          <t>뮤직컴플렉스서울 안녕인사동점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>브런치</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1352,19 +1492,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 17-21 익선잡방</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1313-3418</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>식물</t>
+          <t>서울바나나커피 을지로4가점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,135 +1519,155 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 46-1</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02-742-7582</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>빠우 시청점</t>
+          <t>낙원역</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>도넛</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로9길 40 센터플레이스 1층 102호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1476-8914</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>덕수궁 리에제와플</t>
+          <t>콘크리트 팔레트</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>와플</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 중구 덕수궁길 5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1339-5202</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>소하염전</t>
+          <t>라운드앤드</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 21-5 (익선동)</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1353-8215</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>블루보틀 광화문 카페</t>
+          <t>사월의물고기</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>블루보틀</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1512,125 +1677,145 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 11 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1533-6906</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>학림</t>
+          <t>홍콩밀크컴퍼니</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 119 2층 학림카페</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-742-2877</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>빠우</t>
+          <t>페이퍼마쉐</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>도넛</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 157 대림상가 3층 라열 361호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0507-1374-9285</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>공차 종로센트로폴리스점</t>
+          <t>덕수궁 리에제와플</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>차</t>
+          <t>와플</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 종로구 우정국로 26</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-6370-5850</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>카페 라미스콘 익선점</t>
+          <t>광장시장 찹쌀꽈배기</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1640,19 +1825,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1342-9562</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>프릳츠 원서점</t>
+          <t>텅</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1662,61 +1852,71 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 율곡로 83 아라리오 뮤지엄</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-747-8101</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>사월의물고기</t>
+          <t>익선주택</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 62-5 (충훈빌딩) 2층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-733-8520</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>온</t>
+          <t>치즈인더스트리 [치즈공업사]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1726,71 +1926,81 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 17</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-741-5733</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>라운드앤드</t>
+          <t>카페온화 익선점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 35 두비빌딩</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02-753-7003</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>카페 카다로그</t>
+          <t>아방베이커리 을지로 DGB점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1800,179 +2010,209 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 105 이화빌딩 4층 401호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1357-1868</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>낙원역</t>
+          <t>빠우</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>도넛</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 33-5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>02-763-1112</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>미크플로 광장시장점</t>
+          <t>학림</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 종로구 동호로 395 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1393-5338</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>광장시장 찹쌀꽈배기</t>
+          <t>을지로 베로나</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 종로구 종로32길 2 105호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>010-8917-4547</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>텅</t>
+          <t>메리그린</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 종로구 율곡로 82 701호</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-766-1933</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>다만프레르 SFC점</t>
+          <t>번트서울</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>홍차전문점</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 136 파이넨스빌딩 지하1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>02-6730-1323</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>카페첫만남</t>
+          <t>오키드고멧 안국</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1982,29 +2222,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로9길 12</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>02-766-2337</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>치즈인더스트리 [치즈공업사]</t>
+          <t>카페첫만남</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2014,103 +2259,118 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 33-7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1363-1722</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>오키드고멧 안국</t>
+          <t>런던 베이글 뮤지엄 안국점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 종로구 창덕궁길 35 2층 오키드고멧 안국</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0507-1387-7335</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>어니언 안국</t>
+          <t>포비 을지로점</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>서울 종로구 계동길 5 카페 어니언</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1424-2123</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>포비 을지로점</t>
+          <t>카페 카다로그</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2120,19 +2380,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>서울 중구 청계천로 100 시그니처 타워 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>02-6020-0880</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>플리퍼스 익선점</t>
+          <t>미크플로 광장시장점</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2142,54 +2407,64 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>717</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 31 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>02-766-2526</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>자연도소금빵&amp;자연도가</t>
+          <t>카페 레이어드 안국점</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 21-17 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>02-743-2245</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_A2.xlsx
+++ b/data_process/xlsx/jongno_A2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,53 +469,63 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>그레인바운더리 종로3가점</t>
+          <t>스톤 케이크</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로 388-12 1층 카페 그레인바운더리</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1403-2018</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37915696/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.988498&amp;y=37.56900869999999&amp;timestamp=202308280217</t>
+          <t>https://pcmap.place.naver.com/restaurant/1497888482/photo?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.99068310000006&amp;y=37.574961400000014&amp;timestamp=202309071754</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mouse Potato</t>
+          <t>익선주택</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,31 +540,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 17-33 1층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1309-9208</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1473879047/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.9894418&amp;y=37.5736234&amp;timestamp=202309071754</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>아베베베이커리 서울</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>베이커리</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>정보 없음</t>
@@ -562,36 +577,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 청계천로 201 1, 2, 3층</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1381-7206</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1723070136/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9999438&amp;y=37.5695463&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>자연도소금빵&amp;자연도가</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>베이커리</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>정보 없음</t>
@@ -599,36 +619,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 21-17 1층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-743-2245</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1869147927/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897357&amp;y=37.5737152&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>시애틀커피하우스</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>카페,디저트</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>정보 없음</t>
@@ -636,22 +661,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로 125 1층</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1321-9356</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1058863783/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9915576&amp;y=37.5706843&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
@@ -668,44 +698,49 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로11나길 31-9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1318-8215</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1262377225/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9898015&amp;y=37.5738847&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>토오베</t>
+          <t>포비 광화문</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>차</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,71 +750,81 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로3길 17 D타워 1층 21호</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2251-8125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/37197875/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97879914542168&amp;y=37.570772589171526&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>포비 광화문</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 을지로 157 대림상가3층 (바깥쪽3층)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1305-5880</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1386833963/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954512&amp;y=37.5671459&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>서울커피 익선점</t>
+          <t>커피한약방</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,66 +834,76 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 삼일대로12길 16-6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-4148-4242</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1614417324/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9886013&amp;y=37.5665845&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>크라상점 광장시장점</t>
+          <t>토오베</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>차</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 인사동길 62-4 3층</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1489-7720</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1958472798/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9837135&amp;y=37.5753546&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>커피한약방</t>
+          <t>소하염전</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,39 +913,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 21-5 (익선동)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1353-8215</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1910405811/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897156&amp;y=37.5731557&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>공간갑</t>
+          <t>노티드 안국</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,66 +960,76 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 북촌로 6-3 1층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-7755-9377</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1229793109/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9860399&amp;y=37.5774613&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>소하염전</t>
+          <t>사월의물고기</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1594</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 인사동길 62-5 (충훈빌딩) 2층</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-733-8520</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/259119148/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.983857&amp;y=37.5754765&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>도토리가든</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,39 +1039,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 계동길 19-8 1층</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1476-1176</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1198045151/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9862903&amp;y=37.5780996&amp;timestamp=202309071755</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>티퍼런스서울</t>
+          <t>식물</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,24 +1086,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로11다길 46-1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-7582</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1067925517/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9896683&amp;y=37.5737752&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>커피루소 정동</t>
+          <t>서울커피 익선점</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,108 +1118,123 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 33-3 1층 서울커피</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1404-4890</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/506996136/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99006431105498&amp;y=37.57331503490519&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>식물</t>
+          <t>적당</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 을지로 29 1층 후문</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1312-8928</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1250997417/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9810422&amp;y=37.566491&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>적당</t>
+          <t>카페온화 익선점</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 21-10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-741-3289</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1360232609/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9898104229694&amp;y=37.5732978127673&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>도토리가든</t>
+          <t>커피루소 정동</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,7 +1244,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1159,29 +1254,34 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 정동길 17 1층</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-772-9935</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/38238621/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97059296784535&amp;y=37.5670330323931&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>결</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>애쉬빌 베이커리 카페</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,39 +1291,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>202</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 북촌로5길 5-5 유니온빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1397-0029</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1166685557/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9846556&amp;y=37.5790284&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>노티드 안국</t>
+          <t>카페하이웨스트 익선점</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,7 +1338,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로11다길 18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,24 +1348,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1827620160/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9907084&amp;y=37.5731251&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>익선잡방</t>
+          <t>결</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>브런치</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,24 +1380,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 공평동 17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1437-5840</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1084312804/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98360496929288&amp;y=37.57190513931527&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>열시꽃</t>
+          <t>르베르디마카롱</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,27 +1412,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>810</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로 19 지하1층 르베르디마카롱</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1308-4360</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1380470926/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.9798606&amp;y=37.5708345&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
@@ -1334,34 +1454,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>412</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 대학로 19 1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1351-7092</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/20735772/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=127.00167289999953&amp;y=37.57292119999986&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>카페하이웨스트 익선점</t>
+          <t>공간갑</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,44 +1496,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 수표로 48-8 1, 2층</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1362-4569</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1053282197/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9902865&amp;y=37.5654905&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>테르트르</t>
+          <t>블루보틀 광화문 카페</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>블루보틀</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1418,61 +1548,71 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 청계천로 11 1층</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1533-6906</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1219296929/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97880089683194&amp;y=37.56941887944965&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>블루보틀 광화문 카페</t>
+          <t>테르트르</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>블루보틀</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 낙산5길 46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1388-5689</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1248044853/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01127092684696&amp;y=37.57822282914475&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>뮤직컴플렉스서울 안녕인사동점</t>
+          <t>티퍼런스서울</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,108 +1622,123 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로 61 티퍼런스서울</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-745-1501</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1673228007/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9909604480865&amp;y=37.57398584621112&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>서울바나나커피 을지로4가점</t>
+          <t>광장시장 찹쌀꽈배기</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로32길 2 105호</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-8917-4547</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1993928504/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00041989999974&amp;y=37.570613499999666&amp;timestamp=202309071756</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>낙원역</t>
+          <t>익선잡방</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>브런치</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 17-21 익선잡방</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1313-3418</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1767890367/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98947221497131&amp;y=37.57339806664397&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>콘크리트 팔레트</t>
+          <t>페이퍼마쉐</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,39 +1748,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 무교로 40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-733-5854</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1550163571/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97944881208404&amp;y=37.56952468456348&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>라운드앤드</t>
+          <t>치즈인더스트리 [치즈공업사]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1635,108 +1795,123 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>778</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 33-7</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1363-1722</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1025945192/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9901184&amp;y=37.5734278&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>사월의물고기</t>
+          <t>낙원역</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>951</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 33-5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-763-1112</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1758378925/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9901518&amp;y=37.5733771&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>새로오픈</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>홍콩밀크컴퍼니</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>카페,디저트</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 창신12길 53 1~2층</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1377-7402</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1108023131/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0114657&amp;y=37.5778675&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>페이퍼마쉐</t>
+          <t>사과당 광장시장점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1746,22 +1921,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로32길 21-1 1층 112호</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1496-0443</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1746339151/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0013846&amp;y=37.5700382&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1958,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1788,66 +1968,76 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 덕수궁길 5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1339-5202</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/21627288/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.976491652279&amp;y=37.56482359381061&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>광장시장 찹쌀꽈배기</t>
+          <t>서울바나나커피 을지로4가점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>783</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 을지로 157 3층 다362호, 라362호</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2276-0327</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1944371388/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954936&amp;y=37.5670649&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>텅</t>
+          <t>라르티스타</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1857,71 +2047,81 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로 60 1층</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3672-0060</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1798656623/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9913906&amp;y=37.5738701&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>익선주택</t>
+          <t>라운드앤드</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 정동길 35 두비빌딩</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-753-7003</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1250544364/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97238202880702&amp;y=37.566005956392&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>치즈인더스트리 [치즈공업사]</t>
+          <t>프릳츠 원서점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1936,29 +2136,34 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 율곡로 83 아라리오 뮤지엄</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-747-8101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/715782489/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.988491&amp;y=37.577669&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>카페온화 익선점</t>
+          <t>메리그린</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1968,39 +2173,44 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>772</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 대학로11길 49 2층</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1337-1150</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1273177276/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99910937844199&amp;y=37.58260489138795&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>아방베이커리 을지로 DGB점</t>
+          <t>학림</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2010,29 +2220,34 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 대학로 119 2층 학림카페</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-2877</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/11716359/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00165619999972&amp;y=37.5819499999999&amp;timestamp=202309071757</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>빠우</t>
+          <t>새로오픈</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>도넛</t>
+          <t>아방베이커리 을지로 DGB점</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2042,34 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 남대문로 125 1층</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1417-9923</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1124940756/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9823089&amp;y=37.568377&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>학림</t>
+          <t>빠우</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>도넛</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2079,29 +2299,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 중구 을지로 157 대림상가 3층 라열 361호</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1374-9285</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1881940422/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99545119999999&amp;y=37.5671459&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>을지로 베로나</t>
+          <t>한옥랑솜 익선동카페</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2116,29 +2341,34 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>995</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 21-6 1층</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1352-2185</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1220362883/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9898327&amp;y=37.573209&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>메리그린</t>
+          <t>카페 레이어드 안국점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2148,17 +2378,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 북촌로2길 2-3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2168,14 +2398,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/731605639/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9859679&amp;y=37.577740199999994&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>번트서울</t>
+          <t>익선주택</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2185,34 +2420,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 17-33 1층</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1309-9208</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1473879047/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9894418&amp;y=37.5736234&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>오키드고멧 안국</t>
+          <t>뮤직컴플렉스서울 안녕인사동점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2227,29 +2467,34 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 인사동길 49 안녕인사동 5층 뮤직컴플렉스서울</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1308-2939</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1063364661/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9835556&amp;y=37.5744663&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>카페첫만남</t>
+          <t>오키드고멧 안국</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2264,22 +2509,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 창덕궁길 35 2층 오키드고멧 안국</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1387-7335</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1414582523/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9891377&amp;y=37.5791065&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2546,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 북촌로4길 20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2316,19 +2566,24 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1466975947/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98621308150699&amp;y=37.5792099536111&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>포비 을지로점</t>
+          <t>텅</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2338,29 +2593,34 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 율곡로 82 701호</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-766-1933</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1224384502/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9881544&amp;y=37.5771872&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>카페 카다로그</t>
+          <t>헤리티지클럽</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2370,34 +2630,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 서순라길 75</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1338-9658</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1851933753/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99248956442244&amp;y=37.57377281094622&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>미크플로 광장시장점</t>
+          <t>밀토스트</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2407,34 +2672,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 수표로28길 30-3 1층 밀토스트</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-766-0627</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1144266126/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990353131831&amp;y=37.5731224882113&amp;timestamp=202309071758</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>카페 레이어드 안국점</t>
+          <t>번트서울</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2449,22 +2719,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 청계천로 155 1층, 2층, 3층</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1385-0932</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>https://pcmap.place.naver.com/restaurant/1127007356/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99495506094989&amp;y=37.56882497443454&amp;timestamp=202309071759</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:54:22</t>
         </is>
       </c>
     </row>
